--- a/biology/Médecine/Guy_Lazorthes/Guy_Lazorthes.xlsx
+++ b/biology/Médecine/Guy_Lazorthes/Guy_Lazorthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guy Arnaud Lazorthes, né le 4 juillet 1910 à Toulouse et mort dans cette même ville[1] le 25 mars 2014[2], est un médecin et universitaire français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guy Arnaud Lazorthes, né le 4 juillet 1910 à Toulouse et mort dans cette même ville le 25 mars 2014, est un médecin et universitaire français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Neurochirurgien, Guy Lazorthes fut professeur à la Faculté de médecine de Toulouse, dont il fut le doyen. Professeur émérite à l'université Toulouse-III-Paul-Sabatier, il est membre de l'Académie de médecine depuis 1960 et de l'Académie des sciences depuis 1975. Il est membre du conseil scientifique de l'université interdisciplinaire de Paris. Il est un fervent défenseur de la construction européenne.
 Dans le domaine scientifique, Guy Lazorthes a été à la fois neuro-anatomiste et neuro-chirurgien. Il a associé une étude approfondie de la vascularisation du système nerveux à des progrès considérables sur la chirurgie de ce système. Il a
@@ -548,7 +562,9 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Professeur à la Faculté de médecine de Toulouse de 1948 à 1979 dont il fut le doyen entre 1958 et 1970</t>
         </is>
@@ -578,10 +594,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix Chaussier de l'Académie des sciences (1951)
-Membre de l'Académie de médecine (élu le 31 mai 1960) [3]
+Membre de l'Académie de médecine (élu le 31 mai 1960) 
 Membre étranger de l'Académie royale de médecine de Belgique (élu le 19 mai 1990)
 Prix Peyré de l'Académie des sciences (1968)
 Prix Thierry de Martel (1971)
@@ -618,7 +636,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grand-croix de la Légion d'honneur
 Grand-croix de l'Ordre national du Mérite
@@ -650,7 +670,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Fiche biographique et principaux ouvrages sur le site de l'Académie des sciences
 Fiche sur le site de l'Académie de médecine</t>
